--- a/fbcBOM.xlsx
+++ b/fbcBOM.xlsx
@@ -7,7 +7,7 @@
     <sheet state="visible" name="&lt;=V1.2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">v1.3!$A$2:$F$56</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">v1.3!$A$2:$F$57</definedName>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'&lt;=V1.2'!$A$2:$F$57</definedName>
   </definedNames>
   <calcPr/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="205">
   <si>
     <t>Frog Boy Color BOM for board revision v1.3</t>
   </si>
@@ -281,7 +281,7 @@
     <t>https://www.mouser.com/ProductDetail/621-DMP6350SQ-7</t>
   </si>
   <si>
-    <t>R1,R10,R12, R17</t>
+    <t>R1,R10,R12</t>
   </si>
   <si>
     <t>10K</t>
@@ -290,322 +290,331 @@
     <t>https://www.mouser.com/ProductDetail/71-CRCW0603-5.1K-E3</t>
   </si>
   <si>
+    <t>R8, R11, R19</t>
+  </si>
+  <si>
+    <t>5.1K</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>100K</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/603-RC0603FR-07100KL</t>
+  </si>
+  <si>
+    <t>R18,R20</t>
+  </si>
+  <si>
+    <t>5.6K</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/71-CRCW0603-5.6K-E3</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/603-RC0603FR-07100RL</t>
+  </si>
+  <si>
+    <t>R21,R14</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/603-RT0603FRE13150RL</t>
+  </si>
+  <si>
+    <t>R23</t>
+  </si>
+  <si>
+    <t>430K</t>
+  </si>
+  <si>
+    <t>0605</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/603-RC0603FR-13430KL</t>
+  </si>
+  <si>
+    <t>R24</t>
+  </si>
+  <si>
+    <t>20K</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/603-RC0603FR-0720KL</t>
+  </si>
+  <si>
+    <t>R25</t>
+  </si>
+  <si>
+    <t>47K</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/603-RC0603FR-0747KL</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>1.5M</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/71-CRCW0603-1.5M-E3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>200K</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/603-RC0603FR-07200KL</t>
+  </si>
+  <si>
+    <t>R5,R22</t>
+  </si>
+  <si>
+    <t>3.3K</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/71-CRCW0603-3.3K-E3</t>
+  </si>
+  <si>
+    <t>R6, R16</t>
+  </si>
+  <si>
+    <t>49.9K</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/71-CRCW0603-49.9K-E3</t>
+  </si>
+  <si>
+    <t>R7,R19</t>
+  </si>
+  <si>
+    <t>2.2K</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/71-CRCW0603-2.2K-E3</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/652-CR0603FX-1001ELF</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>15K</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Bourns/CR0603-FX-1502ELF</t>
+  </si>
+  <si>
+    <t>RN1</t>
+  </si>
+  <si>
+    <t>270x4</t>
+  </si>
+  <si>
+    <t>Can harvest from GBC: RA3</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/603-TC164-JR-07270RL</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>SKRTLAE010</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/688-SKRTLA</t>
+  </si>
+  <si>
+    <t>SW8,SW7,SW5,SW3,SW1,SW2,SW4,SW6</t>
+  </si>
+  <si>
+    <t>SKRRAAE010</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/688-SKRRAA</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>CGB CPU</t>
+  </si>
+  <si>
+    <t>U10</t>
+  </si>
+  <si>
+    <t>MAX16054AZT+T</t>
+  </si>
+  <si>
+    <t>SOT-23-6</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/700-MAX16054AZTT</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>CGB RAM</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>BQ24072TRGTR</t>
+  </si>
+  <si>
+    <t>VQFN-16</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/595-BQ24072TRGTR</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>TPS61202DSC</t>
+  </si>
+  <si>
+    <t>WSON-10</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/595-TPS61202DSCR</t>
+  </si>
+  <si>
+    <t>U5,U6</t>
+  </si>
+  <si>
+    <t>LM4875MM_NOPB</t>
+  </si>
+  <si>
+    <t>VSSOP-8</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/926-LM4875MM-NOPB</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>MCP1700T-3302E/TT</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/579-MCP1700T3302E-TT</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>TLV803EB33VDBZR</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/595-TLV803EB33VDBZR</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>TLV3201AIDBVR</t>
+  </si>
+  <si>
+    <t>SOT-23-5</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/595-TLV3201AIDBVR</t>
+  </si>
+  <si>
+    <t>VR1</t>
+  </si>
+  <si>
+    <t>RK08H113003Q</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/688-RK08H113003Q</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>8.388608MHz</t>
+  </si>
+  <si>
+    <t>Speaker</t>
+  </si>
+  <si>
+    <t>CMS-151103-088SP</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/490-CMS-151103-088SP</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>802040</t>
+  </si>
+  <si>
+    <t>Only one battery is necessary. When using two, balance charge prior to installation.</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.us/item/3256802244810488.html</t>
+  </si>
+  <si>
+    <t>Frog Boy Color BOM for board revision &lt;= v1.2</t>
+  </si>
+  <si>
+    <t>Designators</t>
+  </si>
+  <si>
+    <t>C12,C15</t>
+  </si>
+  <si>
+    <t>C7,C9,C4,C1,C5,C6,C32,C8</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/485-1769</t>
+  </si>
+  <si>
+    <t>Q3,Q2</t>
+  </si>
+  <si>
+    <t>SI2312BDS-T1-BE3</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/78-SI2312BDS-T1-BE3</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
     <t>R11,R8</t>
   </si>
   <si>
-    <t>5.1K</t>
-  </si>
-  <si>
-    <t>R15</t>
-  </si>
-  <si>
-    <t>100K</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/603-RC0603FR-07100KL</t>
-  </si>
-  <si>
-    <t>R18,R20</t>
-  </si>
-  <si>
-    <t>5.6K</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/71-CRCW0603-5.6K-E3</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/603-RC0603FR-07100RL</t>
-  </si>
-  <si>
-    <t>R21,R14</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/603-RT0603FRE13150RL</t>
-  </si>
-  <si>
-    <t>R23</t>
-  </si>
-  <si>
-    <t>430K</t>
-  </si>
-  <si>
-    <t>0605</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/603-RC0603FR-13430KL</t>
-  </si>
-  <si>
-    <t>R24</t>
-  </si>
-  <si>
-    <t>20K</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/603-RC0603FR-0720KL</t>
-  </si>
-  <si>
-    <t>R25</t>
-  </si>
-  <si>
-    <t>47K</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/603-RC0603FR-0747KL</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>1.5M</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/71-CRCW0603-1.5M-E3</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>200K</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/603-RC0603FR-07200KL</t>
-  </si>
-  <si>
-    <t>R5,R22</t>
-  </si>
-  <si>
-    <t>3.3K</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/71-CRCW0603-3.3K-E3</t>
-  </si>
-  <si>
-    <t>R6, R16</t>
-  </si>
-  <si>
-    <t>49.9K</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/71-CRCW0603-49.9K-E3</t>
-  </si>
-  <si>
-    <t>R7,R19</t>
-  </si>
-  <si>
-    <t>2.2K</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/71-CRCW0603-2.2K-E3</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>1K</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/652-CR0603FX-1001ELF</t>
-  </si>
-  <si>
-    <t>RN1</t>
-  </si>
-  <si>
-    <t>270x4</t>
-  </si>
-  <si>
-    <t>Can harvest from GBC: RA3</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/603-TC164-JR-07270RL</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>SKRTLAE010</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/688-SKRTLA</t>
-  </si>
-  <si>
-    <t>SW8,SW7,SW5,SW3,SW1,SW2,SW4,SW6</t>
-  </si>
-  <si>
-    <t>SKRRAAE010</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/688-SKRRAA</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>CGB CPU</t>
-  </si>
-  <si>
-    <t>U10</t>
-  </si>
-  <si>
-    <t>MAX16054AZT+T</t>
-  </si>
-  <si>
-    <t>SOT-23-6</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/700-MAX16054AZTT</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>CGB RAM</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>BQ24072TRGTR</t>
-  </si>
-  <si>
-    <t>VQFN-16</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/595-BQ24072TRGTR</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>TPS61202DSC</t>
-  </si>
-  <si>
-    <t>WSON-10</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/595-TPS61202DSCR</t>
-  </si>
-  <si>
-    <t>U5,U6</t>
-  </si>
-  <si>
-    <t>LM4875MM_NOPB</t>
-  </si>
-  <si>
-    <t>VSSOP-8</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/926-LM4875MM-NOPB</t>
-  </si>
-  <si>
-    <t>U7</t>
-  </si>
-  <si>
-    <t>MCP1700T-3302E/TT</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/579-MCP1700T3302E-TT</t>
-  </si>
-  <si>
-    <t>U8</t>
-  </si>
-  <si>
-    <t>TLV803EB33VDBZR</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/595-TLV803EB33VDBZR</t>
-  </si>
-  <si>
-    <t>U9</t>
-  </si>
-  <si>
-    <t>TLV3201AIDBVR</t>
-  </si>
-  <si>
-    <t>SOT-23-5</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/595-TLV3201AIDBVR</t>
-  </si>
-  <si>
-    <t>VR1</t>
-  </si>
-  <si>
-    <t>RK08H113003Q</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/688-RK08H113003Q</t>
-  </si>
-  <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>8.388608MHz</t>
-  </si>
-  <si>
-    <t>Speaker</t>
-  </si>
-  <si>
-    <t>CMS-151103-088SP</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/490-CMS-151103-088SP</t>
-  </si>
-  <si>
-    <t>Battery</t>
-  </si>
-  <si>
-    <t>802040</t>
-  </si>
-  <si>
-    <t>Only one battery is necessary. When using two, balance charge prior to installation.</t>
-  </si>
-  <si>
-    <t>https://www.aliexpress.us/item/3256802244810488.html</t>
-  </si>
-  <si>
-    <t>Frog Boy Color BOM for board revision &lt;= v1.2</t>
-  </si>
-  <si>
-    <t>Designators</t>
-  </si>
-  <si>
-    <t>C12,C15</t>
-  </si>
-  <si>
-    <t>C7,C9,C4,C1,C5,C6,C32,C8</t>
-  </si>
-  <si>
-    <t>Optional</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/485-1769</t>
-  </si>
-  <si>
-    <t>Q3,Q2</t>
-  </si>
-  <si>
-    <t>SI2312BDS-T1-BE3</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/78-SI2312BDS-T1-BE3</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
     <t>R13,R12,R10,R15</t>
-  </si>
-  <si>
-    <t>R17</t>
   </si>
   <si>
     <t>10k</t>
@@ -630,7 +639,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m-d"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -654,6 +663,11 @@
     <font>
       <u/>
       <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -713,7 +727,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -763,16 +777,22 @@
     <xf borderId="2" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -784,10 +804,10 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -1471,7 +1491,7 @@
         <v>88</v>
       </c>
       <c r="B26" s="3">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>89</v>
@@ -1489,7 +1509,7 @@
         <v>91</v>
       </c>
       <c r="B27" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>92</v>
@@ -1743,33 +1763,33 @@
       <c r="B41" s="3">
         <v>1.0</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" s="6" t="s">
+      <c r="D41" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="18" t="s">
         <v>135</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B42" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C42" s="4" t="s">
+      <c r="D42" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E42" s="6"/>
       <c r="F42" s="7" t="s">
         <v>139</v>
       </c>
@@ -1779,7 +1799,7 @@
         <v>140</v>
       </c>
       <c r="B43" s="3">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>141</v>
@@ -1797,7 +1817,7 @@
         <v>143</v>
       </c>
       <c r="B44" s="3">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>144</v>
@@ -1805,112 +1825,113 @@
       <c r="D44" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E44" s="6" t="s">
-        <v>64</v>
+      <c r="E44" s="6"/>
+      <c r="F44" s="7" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B45" s="3">
         <v>1.0</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D45" s="3" t="s">
+      <c r="C45" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F45" s="8" t="s">
-        <v>148</v>
+      <c r="D45" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B46" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C46" s="4" t="s">
+      <c r="D46" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>64</v>
+      <c r="F46" s="8" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B47" s="3">
         <v>1.0</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D47" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="7" t="s">
-        <v>154</v>
+      <c r="D47" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B48" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C48" s="4" t="s">
+      <c r="D48" s="19" t="s">
         <v>156</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>157</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B49" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="C49" s="4" t="s">
+      <c r="D49" s="20" t="s">
         <v>160</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>161</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B50" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B50" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C50" s="3" t="s">
+      <c r="D50" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F50" s="8" t="s">
+      <c r="E50" s="6"/>
+      <c r="F50" s="7" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1921,14 +1942,13 @@
       <c r="B51" s="3">
         <v>1.0</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="7" t="s">
+      <c r="F51" s="8" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1943,22 +1963,22 @@
         <v>170</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>171</v>
+        <v>86</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="B53" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>174</v>
@@ -1979,67 +1999,46 @@
         <v>177</v>
       </c>
       <c r="D54" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="F54" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E55" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B55" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6"/>
-      <c r="R55" s="6"/>
-      <c r="S55" s="6"/>
-      <c r="T55" s="6"/>
-      <c r="U55" s="6"/>
-      <c r="V55" s="6"/>
-      <c r="W55" s="6"/>
-      <c r="X55" s="6"/>
-      <c r="Y55" s="6"/>
     </row>
     <row r="56">
       <c r="A56" s="6" t="s">
         <v>181</v>
       </c>
       <c r="B56" s="21">
-        <v>44928.0</v>
-      </c>
-      <c r="C56" s="6" t="s">
+        <v>2.0</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D56" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="6"/>
+      <c r="F56" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
@@ -2061,10 +2060,49 @@
       <c r="X56" s="6"/>
       <c r="Y56" s="6"/>
     </row>
+    <row r="57">
+      <c r="A57" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B57" s="23">
+        <v>44928.0</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+      <c r="V57" s="6"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="6"/>
+      <c r="Y57" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$2:$F$56">
-    <sortState ref="A2:F56">
-      <sortCondition ref="A2:A56"/>
+  <autoFilter ref="$A$2:$F$57">
+    <sortState ref="A2:F57">
+      <sortCondition ref="A2:A57"/>
     </sortState>
   </autoFilter>
   <mergeCells count="1">
@@ -2108,18 +2146,19 @@
     <hyperlink r:id="rId35" ref="F41"/>
     <hyperlink r:id="rId36" ref="F42"/>
     <hyperlink r:id="rId37" ref="F43"/>
-    <hyperlink r:id="rId38" ref="F45"/>
-    <hyperlink r:id="rId39" ref="F47"/>
+    <hyperlink r:id="rId38" ref="F44"/>
+    <hyperlink r:id="rId39" ref="F46"/>
     <hyperlink r:id="rId40" ref="F48"/>
     <hyperlink r:id="rId41" ref="F49"/>
     <hyperlink r:id="rId42" ref="F50"/>
     <hyperlink r:id="rId43" ref="F51"/>
     <hyperlink r:id="rId44" ref="F52"/>
     <hyperlink r:id="rId45" ref="F53"/>
-    <hyperlink r:id="rId46" ref="F55"/>
+    <hyperlink r:id="rId46" ref="F54"/>
     <hyperlink r:id="rId47" ref="F56"/>
+    <hyperlink r:id="rId48" ref="F57"/>
   </hyperlinks>
-  <drawing r:id="rId48"/>
+  <drawing r:id="rId49"/>
 </worksheet>
 </file>
 
@@ -2142,7 +2181,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -2156,7 +2195,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -2184,7 +2223,7 @@
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="24" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -2193,7 +2232,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B4" s="3">
         <v>2.0</v>
@@ -2201,7 +2240,7 @@
       <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="24" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -2221,7 +2260,7 @@
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="24" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="8" t="s">
@@ -2238,7 +2277,7 @@
       <c r="C6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="24" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="8" t="s">
@@ -2255,7 +2294,7 @@
       <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="24" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -2275,7 +2314,7 @@
       <c r="C8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="24" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="8" t="s">
@@ -2292,7 +2331,7 @@
       <c r="C9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="24" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="8" t="s">
@@ -2309,7 +2348,7 @@
       <c r="C10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="24" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="8" t="s">
@@ -2326,7 +2365,7 @@
       <c r="C11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="24" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="8" t="s">
@@ -2343,7 +2382,7 @@
       <c r="C12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="24" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="8" t="s">
@@ -2352,7 +2391,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B13" s="3">
         <v>8.0</v>
@@ -2360,7 +2399,7 @@
       <c r="C13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="24" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="8" t="s">
@@ -2377,7 +2416,7 @@
       <c r="C14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="24" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -2394,7 +2433,7 @@
       <c r="C15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F15" s="8" t="s">
@@ -2411,7 +2450,7 @@
       <c r="C16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="24" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="8" t="s">
@@ -2428,7 +2467,7 @@
       <c r="C17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="24" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -2506,10 +2545,10 @@
         <v>60</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22">
@@ -2582,24 +2621,24 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B26" s="3">
         <v>2.0</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>86</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B27" s="3">
         <v>1.0</v>
@@ -2607,7 +2646,7 @@
       <c r="C27" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="24" t="s">
         <v>9</v>
       </c>
       <c r="F27" s="8" t="s">
@@ -2616,7 +2655,7 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>91</v>
+        <v>198</v>
       </c>
       <c r="B28" s="3">
         <v>2.0</v>
@@ -2624,7 +2663,7 @@
       <c r="C28" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="25" t="s">
         <v>9</v>
       </c>
       <c r="F28" s="8" t="s">
@@ -2633,7 +2672,7 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B29" s="3">
         <v>4.0</v>
@@ -2641,7 +2680,7 @@
       <c r="C29" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="24" t="s">
         <v>9</v>
       </c>
       <c r="F29" s="8" t="s">
@@ -2650,19 +2689,19 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>196</v>
+        <v>133</v>
       </c>
       <c r="B30" s="3">
         <v>1.0</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D30" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D30" s="24" t="s">
         <v>9</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31">
@@ -2675,7 +2714,7 @@
       <c r="C31" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="24" t="s">
         <v>9</v>
       </c>
       <c r="F31" s="8" t="s">
@@ -2689,10 +2728,10 @@
       <c r="B32" s="3">
         <v>1.0</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="24" t="s">
         <v>9</v>
       </c>
       <c r="F32" s="8" t="s">
@@ -2706,10 +2745,10 @@
       <c r="B33" s="3">
         <v>2.0</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="24" t="s">
         <v>9</v>
       </c>
       <c r="F33" s="8" t="s">
@@ -2726,7 +2765,7 @@
       <c r="C34" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="24" t="s">
         <v>107</v>
       </c>
       <c r="F34" s="8" t="s">
@@ -2743,7 +2782,7 @@
       <c r="C35" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="24" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="8" t="s">
@@ -2760,7 +2799,7 @@
       <c r="C36" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="24" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="8" t="s">
@@ -2777,7 +2816,7 @@
       <c r="C37" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="24" t="s">
         <v>9</v>
       </c>
       <c r="F37" s="8" t="s">
@@ -2794,7 +2833,7 @@
       <c r="C38" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="24" t="s">
         <v>9</v>
       </c>
       <c r="F38" s="8" t="s">
@@ -2811,7 +2850,7 @@
       <c r="C39" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="24" t="s">
         <v>9</v>
       </c>
       <c r="F39" s="8" t="s">
@@ -2828,7 +2867,7 @@
       <c r="C40" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="24" t="s">
         <v>9</v>
       </c>
       <c r="F40" s="8" t="s">
@@ -2837,7 +2876,7 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B41" s="3">
         <v>2.0</v>
@@ -2845,7 +2884,7 @@
       <c r="C41" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="24" t="s">
         <v>9</v>
       </c>
       <c r="F41" s="8" t="s">
@@ -2862,7 +2901,7 @@
       <c r="C42" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="24" t="s">
         <v>9</v>
       </c>
       <c r="F42" s="8" t="s">
@@ -2871,67 +2910,67 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B43" s="3">
         <v>1.0</v>
       </c>
-      <c r="C43" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="D43" s="22" t="s">
+      <c r="C43" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" s="24" t="s">
         <v>17</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B44" s="3">
         <v>1.0</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B45" s="3">
         <v>8.0</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B46" s="3">
         <v>1.0</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>60</v>
@@ -2942,13 +2981,13 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B47" s="3">
         <v>1.0</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>60</v>
@@ -2959,132 +2998,132 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B48" s="3">
         <v>1.0</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>153</v>
+        <v>155</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>156</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B49" s="3">
         <v>1.0</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D49" s="25" t="s">
-        <v>157</v>
+        <v>159</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>160</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B50" s="3">
         <v>2.0</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D50" s="24" t="s">
-        <v>161</v>
+        <v>163</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>164</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B51" s="3">
         <v>1.0</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>86</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B52" s="3">
         <v>1.0</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>86</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B53" s="3">
         <v>1.0</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B54" s="3">
         <v>1.0</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B55" s="3">
         <v>1.0</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>60</v>
@@ -3095,39 +3134,39 @@
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B56" s="3">
         <v>2.0</v>
       </c>
-      <c r="C56" s="24" t="s">
-        <v>179</v>
+      <c r="C56" s="26" t="s">
+        <v>182</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B57" s="26">
+        <v>184</v>
+      </c>
+      <c r="B57" s="28">
         <v>44928.0</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D57" s="22" t="s">
-        <v>182</v>
+      <c r="D57" s="24" t="s">
+        <v>185</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/fbcBOM.xlsx
+++ b/fbcBOM.xlsx
@@ -398,7 +398,7 @@
     <t>https://www.mouser.com/ProductDetail/71-CRCW0603-49.9K-E3</t>
   </si>
   <si>
-    <t>R7,R19</t>
+    <t>R7</t>
   </si>
   <si>
     <t>2.2K</t>
@@ -1725,7 +1725,7 @@
         <v>127</v>
       </c>
       <c r="B39" s="3">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>128</v>

--- a/fbcBOM.xlsx
+++ b/fbcBOM.xlsx
@@ -56,571 +56,571 @@
     <t>10uF</t>
   </si>
   <si>
+    <t>https://www.mouser.com/ProductDetail/81-GRM188Z71A106KA3D</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>22uF</t>
+  </si>
+  <si>
+    <t>1206</t>
+  </si>
+  <si>
+    <t>C15 can alternatively be replaced with 100uF tantalum capacitor</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/581-1206ZC226MAT2A</t>
+  </si>
+  <si>
+    <t>C16,C31,C14,C30,C29,C22,C21,C24,C17</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/581-0603YC105KAT2A</t>
+  </si>
+  <si>
+    <t>C18,C19</t>
+  </si>
+  <si>
+    <t>100uF</t>
+  </si>
+  <si>
+    <t>Use tantalum capacitors. 22uF MLCC can be substituted in a pinch</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/581-TLJA107M10R1400</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>18pF</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/581-06035A180J</t>
+  </si>
+  <si>
+    <t>C23,C20</t>
+  </si>
+  <si>
+    <t>0.22uF</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/603-AC0603X7R9BB224</t>
+  </si>
+  <si>
+    <t>C25</t>
+  </si>
+  <si>
+    <t>22pF</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/581-06035C220JAT2A</t>
+  </si>
+  <si>
+    <t>C26,C27,C28</t>
+  </si>
+  <si>
+    <t>100pF</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/581-0603YC101KAT2A</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>27pF</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/581-06035A270J</t>
+  </si>
+  <si>
+    <t>C7,C9,C4,C1,C5,C6,C32,C12,C8</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/581-06035C104KAT2A</t>
+  </si>
+  <si>
+    <t>D4,D3,D1</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>D1: Charge, D3: High batt, D4: Low batt</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>2.5A, ERB-RG2R50V</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/667-ERB-RG2R50V</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/594-MFU0603FF01000P1</t>
+  </si>
+  <si>
+    <t>FB1</t>
+  </si>
+  <si>
+    <t>FBx4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can harvest from CGB-CPU-04 and earlier: FB1 </t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/81-BLA3216A601SG4</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>Link port</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Harvest from GBC/GBP</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>Cartridge slot</t>
+  </si>
+  <si>
+    <t>Harvest from GBC</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>62684-502100ALF</t>
+  </si>
+  <si>
+    <t>Can harvest from GBC: P2</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/649-62684-502100ALF</t>
+  </si>
+  <si>
+    <t>J5,J4</t>
+  </si>
+  <si>
+    <t>JST PH 2-pin</t>
+  </si>
+  <si>
+    <t>OPTIONAL: Reduces battery size that can be used to 602040</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>TYPE-C-31-M-12</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/USB-Connectors_Korean-Hroparts-Elec-TYPE-C-31-M-12_C165948.html</t>
+  </si>
+  <si>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>SJ2-3593D-SMT-TR</t>
+  </si>
+  <si>
+    <t>SJ23593DSMTTR</t>
+  </si>
+  <si>
+    <t>Headphone jack</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/490-SJ2-3593D-SMT-TR</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>VLS3012HBX-2R2M-N</t>
+  </si>
+  <si>
+    <t>VLS3012</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/810-VLS3012HBX2R2M-N</t>
+  </si>
+  <si>
+    <t>Q1,Q4</t>
+  </si>
+  <si>
+    <t>DMP6350SQ-7</t>
+  </si>
+  <si>
+    <t>SOT-23</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/621-DMP6350SQ-7</t>
+  </si>
+  <si>
+    <t>R1,R10,R12</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/71-CRCW0603-5.1K-E3</t>
+  </si>
+  <si>
+    <t>R8, R11, R19</t>
+  </si>
+  <si>
+    <t>5.1K</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>100K</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/603-RC0603FR-07100KL</t>
+  </si>
+  <si>
+    <t>R18,R20</t>
+  </si>
+  <si>
+    <t>5.6K</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/71-CRCW0603-5.6K-E3</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/603-RC0603FR-07100RL</t>
+  </si>
+  <si>
+    <t>R21,R14</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/603-RT0603FRE13150RL</t>
+  </si>
+  <si>
+    <t>R23</t>
+  </si>
+  <si>
+    <t>430K</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/603-RC0603FR-13430KL</t>
+  </si>
+  <si>
+    <t>R24</t>
+  </si>
+  <si>
+    <t>20K</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/603-RC0603FR-0720KL</t>
+  </si>
+  <si>
+    <t>R25</t>
+  </si>
+  <si>
+    <t>47K</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/603-RC0603FR-0747KL</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>1.5M</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/71-CRCW0603-1.5M-E3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>200K</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/603-RC0603FR-07200KL</t>
+  </si>
+  <si>
+    <t>R5,R22</t>
+  </si>
+  <si>
+    <t>3.3K</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/71-CRCW0603-3.3K-E3</t>
+  </si>
+  <si>
+    <t>R6, R16</t>
+  </si>
+  <si>
+    <t>49.9K</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/71-CRCW0603-49.9K-E3</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>2.2K</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/71-CRCW0603-2.2K-E3</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/652-CR0603FX-1001ELF</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>15K</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Bourns/CR0603-FX-1502ELF</t>
+  </si>
+  <si>
+    <t>RN1</t>
+  </si>
+  <si>
+    <t>270x4</t>
+  </si>
+  <si>
+    <t>Can harvest from GBC: RA3</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/603-TC164-JR-07270RL</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>SKRTLAE010</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/688-SKRTLA</t>
+  </si>
+  <si>
+    <t>SW8,SW7,SW5,SW3,SW1,SW2,SW4,SW6</t>
+  </si>
+  <si>
+    <t>SKRRAAE010</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/688-SKRRAA</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>CGB CPU</t>
+  </si>
+  <si>
+    <t>U10</t>
+  </si>
+  <si>
+    <t>MAX16054AZT+T</t>
+  </si>
+  <si>
+    <t>SOT-23-6</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/700-MAX16054AZTT</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>CGB RAM</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>BQ24072TRGTR</t>
+  </si>
+  <si>
+    <t>VQFN-16</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/595-BQ24072TRGTR</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>TPS61202DSC</t>
+  </si>
+  <si>
+    <t>WSON-10</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/595-TPS61202DSCR</t>
+  </si>
+  <si>
+    <t>U5,U6</t>
+  </si>
+  <si>
+    <t>LM4875MM_NOPB</t>
+  </si>
+  <si>
+    <t>VSSOP-8</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/926-LM4875MM-NOPB</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>MCP1700T-3302E/TT</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/579-MCP1700T3302E-TT</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>TLV803EB33VDBZR</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/595-TLV803EB33VDBZR</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>TLV3201AIDBVR</t>
+  </si>
+  <si>
+    <t>SOT-23-5</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/595-TLV3201AIDBVR</t>
+  </si>
+  <si>
+    <t>VR1</t>
+  </si>
+  <si>
+    <t>RK08H113003Q</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/688-RK08H113003Q</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>8.388608MHz</t>
+  </si>
+  <si>
+    <t>Speaker</t>
+  </si>
+  <si>
+    <t>CMS-151103-088SP</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/490-CMS-151103-088SP</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>802040</t>
+  </si>
+  <si>
+    <t>Only one battery is necessary. When using two, balance charge prior to installation.</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.us/item/3256802244810488.html</t>
+  </si>
+  <si>
+    <t>Frog Boy Color BOM for board revision &lt;= v1.2</t>
+  </si>
+  <si>
+    <t>Designators</t>
+  </si>
+  <si>
+    <t>C12,C15</t>
+  </si>
+  <si>
     <t>0606</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProductDetail/81-GRM188Z71A106KA3D</t>
-  </si>
-  <si>
-    <t>C15</t>
-  </si>
-  <si>
-    <t>22uF</t>
-  </si>
-  <si>
-    <t>1206</t>
-  </si>
-  <si>
-    <t>C15 can alternatively be replaced with 100uF tantalum capacitor</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/581-1206ZC226MAT2A</t>
-  </si>
-  <si>
-    <t>C16,C31,C14,C30,C29,C22,C21,C24,C17</t>
-  </si>
-  <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/581-0603YC105KAT2A</t>
-  </si>
-  <si>
-    <t>C18,C19</t>
-  </si>
-  <si>
-    <t>100uF</t>
-  </si>
-  <si>
-    <t>Use tantalum capacitors. 22uF MLCC can be substituted in a pinch</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/581-TLJA107M10R1400</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>18pF</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/581-06035A180J</t>
-  </si>
-  <si>
-    <t>C23,C20</t>
-  </si>
-  <si>
-    <t>0.22uF</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/603-AC0603X7R9BB224</t>
-  </si>
-  <si>
-    <t>C25</t>
-  </si>
-  <si>
-    <t>22pF</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/581-06035C220JAT2A</t>
-  </si>
-  <si>
-    <t>C26,C27,C28</t>
-  </si>
-  <si>
-    <t>100pF</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/581-0603YC101KAT2A</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>27pF</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/581-06035A270J</t>
-  </si>
-  <si>
-    <t>C7,C9,C4,C1,C5,C6,C32,C12,C8</t>
-  </si>
-  <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/581-06035C104KAT2A</t>
-  </si>
-  <si>
-    <t>D4,D3,D1</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>D1: Charge, D3: High batt, D4: Low batt</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>2.5A, ERB-RG2R50V</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/667-ERB-RG2R50V</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>1A</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/594-MFU0603FF01000P1</t>
-  </si>
-  <si>
-    <t>FB1</t>
-  </si>
-  <si>
-    <t>FBx4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can harvest from CGB-CPU-04 and earlier: FB1 </t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/81-BLA3216A601SG4</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>Link port</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Harvest from GBC/GBP</t>
-  </si>
-  <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>Cartridge slot</t>
-  </si>
-  <si>
-    <t>Harvest from GBC</t>
-  </si>
-  <si>
-    <t>J3</t>
-  </si>
-  <si>
-    <t>62684-502100ALF</t>
-  </si>
-  <si>
-    <t>Can harvest from GBC: P2</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/649-62684-502100ALF</t>
-  </si>
-  <si>
-    <t>J5,J4</t>
-  </si>
-  <si>
-    <t>JST PH 2-pin</t>
-  </si>
-  <si>
-    <t>OPTIONAL: Reduces battery size that can be used to 602040</t>
-  </si>
-  <si>
-    <t>J6</t>
-  </si>
-  <si>
-    <t>TYPE-C-31-M-12</t>
-  </si>
-  <si>
-    <t>https://www.lcsc.com/product-detail/USB-Connectors_Korean-Hroparts-Elec-TYPE-C-31-M-12_C165948.html</t>
-  </si>
-  <si>
-    <t>J7</t>
-  </si>
-  <si>
-    <t>SJ2-3593D-SMT-TR</t>
-  </si>
-  <si>
-    <t>SJ23593DSMTTR</t>
-  </si>
-  <si>
-    <t>Headphone jack</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/490-SJ2-3593D-SMT-TR</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>VLS3012HBX-2R2M-N</t>
-  </si>
-  <si>
-    <t>VLS3012</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/810-VLS3012HBX2R2M-N</t>
-  </si>
-  <si>
-    <t>Q1,Q4</t>
-  </si>
-  <si>
-    <t>DMP6350SQ-7</t>
-  </si>
-  <si>
-    <t>SOT-23</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/621-DMP6350SQ-7</t>
-  </si>
-  <si>
-    <t>R1,R10,R12</t>
-  </si>
-  <si>
-    <t>10K</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/71-CRCW0603-5.1K-E3</t>
-  </si>
-  <si>
-    <t>R8, R11, R19</t>
-  </si>
-  <si>
-    <t>5.1K</t>
-  </si>
-  <si>
-    <t>R15</t>
-  </si>
-  <si>
-    <t>100K</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/603-RC0603FR-07100KL</t>
-  </si>
-  <si>
-    <t>R18,R20</t>
-  </si>
-  <si>
-    <t>5.6K</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/71-CRCW0603-5.6K-E3</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/603-RC0603FR-07100RL</t>
-  </si>
-  <si>
-    <t>R21,R14</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/603-RT0603FRE13150RL</t>
-  </si>
-  <si>
-    <t>R23</t>
-  </si>
-  <si>
-    <t>430K</t>
+    <t>C7,C9,C4,C1,C5,C6,C32,C8</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/485-1769</t>
+  </si>
+  <si>
+    <t>Q3,Q2</t>
+  </si>
+  <si>
+    <t>SI2312BDS-T1-BE3</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/78-SI2312BDS-T1-BE3</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R11,R8</t>
+  </si>
+  <si>
+    <t>R13,R12,R10,R15</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/603-RC0603FR-0710KL</t>
   </si>
   <si>
     <t>0605</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/603-RC0603FR-13430KL</t>
-  </si>
-  <si>
-    <t>R24</t>
-  </si>
-  <si>
-    <t>20K</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/603-RC0603FR-0720KL</t>
-  </si>
-  <si>
-    <t>R25</t>
-  </si>
-  <si>
-    <t>47K</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/603-RC0603FR-0747KL</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>1.5M</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/71-CRCW0603-1.5M-E3</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>200K</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/603-RC0603FR-07200KL</t>
-  </si>
-  <si>
-    <t>R5,R22</t>
-  </si>
-  <si>
-    <t>3.3K</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/71-CRCW0603-3.3K-E3</t>
-  </si>
-  <si>
-    <t>R6, R16</t>
-  </si>
-  <si>
-    <t>49.9K</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/71-CRCW0603-49.9K-E3</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>2.2K</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/71-CRCW0603-2.2K-E3</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>1K</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/652-CR0603FX-1001ELF</t>
-  </si>
-  <si>
-    <t>R17</t>
-  </si>
-  <si>
-    <t>15K</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/Bourns/CR0603-FX-1502ELF</t>
-  </si>
-  <si>
-    <t>RN1</t>
-  </si>
-  <si>
-    <t>270x4</t>
-  </si>
-  <si>
-    <t>Can harvest from GBC: RA3</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/603-TC164-JR-07270RL</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>SKRTLAE010</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/688-SKRTLA</t>
-  </si>
-  <si>
-    <t>SW8,SW7,SW5,SW3,SW1,SW2,SW4,SW6</t>
-  </si>
-  <si>
-    <t>SKRRAAE010</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/688-SKRRAA</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>CGB CPU</t>
-  </si>
-  <si>
-    <t>U10</t>
-  </si>
-  <si>
-    <t>MAX16054AZT+T</t>
-  </si>
-  <si>
-    <t>SOT-23-6</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/700-MAX16054AZTT</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>CGB RAM</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>BQ24072TRGTR</t>
-  </si>
-  <si>
-    <t>VQFN-16</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/595-BQ24072TRGTR</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>TPS61202DSC</t>
-  </si>
-  <si>
-    <t>WSON-10</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/595-TPS61202DSCR</t>
-  </si>
-  <si>
-    <t>U5,U6</t>
-  </si>
-  <si>
-    <t>LM4875MM_NOPB</t>
-  </si>
-  <si>
-    <t>VSSOP-8</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/926-LM4875MM-NOPB</t>
-  </si>
-  <si>
-    <t>U7</t>
-  </si>
-  <si>
-    <t>MCP1700T-3302E/TT</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/579-MCP1700T3302E-TT</t>
-  </si>
-  <si>
-    <t>U8</t>
-  </si>
-  <si>
-    <t>TLV803EB33VDBZR</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/595-TLV803EB33VDBZR</t>
-  </si>
-  <si>
-    <t>U9</t>
-  </si>
-  <si>
-    <t>TLV3201AIDBVR</t>
-  </si>
-  <si>
-    <t>SOT-23-5</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/595-TLV3201AIDBVR</t>
-  </si>
-  <si>
-    <t>VR1</t>
-  </si>
-  <si>
-    <t>RK08H113003Q</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/688-RK08H113003Q</t>
-  </si>
-  <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>8.388608MHz</t>
-  </si>
-  <si>
-    <t>Speaker</t>
-  </si>
-  <si>
-    <t>CMS-151103-088SP</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/490-CMS-151103-088SP</t>
-  </si>
-  <si>
-    <t>Battery</t>
-  </si>
-  <si>
-    <t>802040</t>
-  </si>
-  <si>
-    <t>Only one battery is necessary. When using two, balance charge prior to installation.</t>
-  </si>
-  <si>
-    <t>https://www.aliexpress.us/item/3256802244810488.html</t>
-  </si>
-  <si>
-    <t>Frog Boy Color BOM for board revision &lt;= v1.2</t>
-  </si>
-  <si>
-    <t>Designators</t>
-  </si>
-  <si>
-    <t>C12,C15</t>
-  </si>
-  <si>
-    <t>C7,C9,C4,C1,C5,C6,C32,C8</t>
-  </si>
-  <si>
-    <t>Optional</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/485-1769</t>
-  </si>
-  <si>
-    <t>Q3,Q2</t>
-  </si>
-  <si>
-    <t>SI2312BDS-T1-BE3</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/78-SI2312BDS-T1-BE3</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>R11,R8</t>
-  </si>
-  <si>
-    <t>R13,R12,R10,R15</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/603-RC0603FR-0710KL</t>
   </si>
   <si>
     <t>R7, R19</t>
@@ -752,6 +752,9 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -776,9 +779,6 @@
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -1093,952 +1093,952 @@
       <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>13</v>
+      <c r="D4" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3">
         <v>9.0</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="3">
         <v>2.0</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="3">
         <v>2.0</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="3">
         <v>3.0</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="3">
         <v>9.0</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="3">
         <v>3.0</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="D15" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="6" t="s">
+      <c r="F17" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="F20" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="8" t="s">
+    </row>
+    <row r="21">
+      <c r="A21" s="10" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="9" t="s">
+      <c r="B21" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="C21" s="10" t="s">
+      <c r="D21" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="12"/>
+      <c r="F21" s="13"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="13" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="F23" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="15"/>
+      <c r="F24" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" s="3">
         <v>2.0</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B26" s="3">
         <v>3.0</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B27" s="3">
         <v>3.0</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="16" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="17" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B29" s="3">
         <v>2.0</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="B30" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B31" s="3">
         <v>2.0</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>107</v>
+      <c r="D32" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B33" s="3">
         <v>1.0</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B34" s="3">
         <v>1.0</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B35" s="3">
         <v>1.0</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B36" s="3">
         <v>1.0</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B37" s="3">
         <v>2.0</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B38" s="3">
         <v>2.0</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B39" s="3">
         <v>1.0</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B40" s="3">
         <v>1.0</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B41" s="3">
         <v>1.0</v>
       </c>
-      <c r="C41" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D41" s="17" t="s">
+      <c r="C41" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B42" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C42" s="5" t="s">
+      <c r="F42" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B43" s="3">
         <v>1.0</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B44" s="3">
         <v>8.0</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B45" s="3">
         <v>1.0</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B46" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C46" s="3" t="s">
+      <c r="F46" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B47" s="3">
         <v>1.0</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D48" s="19" t="s">
         <v>154</v>
-      </c>
-      <c r="B48" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>156</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D49" s="20" t="s">
         <v>158</v>
-      </c>
-      <c r="B49" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>160</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B50" s="3">
         <v>2.0</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B51" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F51" s="9" t="s">
         <v>166</v>
-      </c>
-      <c r="B51" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B52" s="3">
         <v>1.0</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="B53" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B54" s="3">
         <v>1.0</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B55" s="3">
         <v>1.0</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B56" s="21">
         <v>2.0</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
@@ -2062,22 +2062,22 @@
     </row>
     <row r="57">
       <c r="A57" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B57" s="23">
         <v>44928.0</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D57" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F57" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
@@ -2181,7 +2181,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -2195,7 +2195,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -2226,28 +2226,28 @@
       <c r="D3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B4" s="3">
         <v>2.0</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -2261,617 +2261,617 @@
         <v>12</v>
       </c>
       <c r="D5" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3">
         <v>9.0</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="3">
         <v>2.0</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="3">
         <v>2.0</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="3">
         <v>3.0</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B13" s="3">
         <v>8.0</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="3">
         <v>3.0</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="3">
         <v>2.0</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>192</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>79</v>
+      <c r="F23" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="F24" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" s="3">
         <v>2.0</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="F25" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B26" s="3">
         <v>2.0</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>195</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B27" s="3">
         <v>1.0</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B28" s="3">
         <v>2.0</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D28" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="8" t="s">
-        <v>90</v>
+      <c r="F28" s="9" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B29" s="3">
         <v>4.0</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B30" s="3">
         <v>1.0</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="9" t="s">
         <v>200</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B31" s="3">
         <v>2.0</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C32" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C32" s="24" t="s">
+      <c r="D32" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B33" s="3">
         <v>2.0</v>
       </c>
       <c r="C33" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="9" t="s">
         <v>103</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="F34" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="9" t="s">
         <v>109</v>
-      </c>
-      <c r="B35" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="B36" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D36" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="9" t="s">
         <v>115</v>
-      </c>
-      <c r="B37" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="B38" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B39" s="3">
         <v>2.0</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D39" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="8" t="s">
-        <v>123</v>
+      <c r="F39" s="9" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B40" s="3">
         <v>2.0</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="8" t="s">
-        <v>126</v>
+      <c r="F40" s="9" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="41">
@@ -2882,174 +2882,174 @@
         <v>2.0</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D41" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="8" t="s">
-        <v>129</v>
+      <c r="F41" s="9" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="B42" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B43" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C43" s="24" t="s">
+      <c r="F43" s="9" t="s">
         <v>137</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="B44" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B45" s="3">
         <v>8.0</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>145</v>
+        <v>59</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B46" s="3">
         <v>1.0</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B47" s="3">
         <v>1.0</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D48" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="B48" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C48" s="3" t="s">
+      <c r="F48" s="9" t="s">
         <v>155</v>
-      </c>
-      <c r="D48" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D49" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="B49" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C49" s="3" t="s">
+      <c r="F49" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B50" s="3">
         <v>2.0</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="F50" s="9" t="s">
         <v>163</v>
-      </c>
-      <c r="D50" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B51" s="3">
         <v>1.0</v>
@@ -3058,115 +3058,115 @@
         <v>203</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F51" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F51" s="9" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B52" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F52" s="9" t="s">
         <v>169</v>
-      </c>
-      <c r="B52" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B53" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C53" s="3" t="s">
+      <c r="F53" s="9" t="s">
         <v>173</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B54" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F54" s="9" t="s">
         <v>176</v>
-      </c>
-      <c r="B54" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B55" s="3">
         <v>1.0</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B56" s="3">
         <v>2.0</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>183</v>
+        <v>59</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B57" s="28">
         <v>44928.0</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D57" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F57" s="9" t="s">
         <v>185</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>187</v>
       </c>
     </row>
   </sheetData>
